--- a/example/game_03_a_dark_room/events.xlsx
+++ b/example/game_03_a_dark_room/events.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS8"/>
+  <dimension ref="A1:AV8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -458,84 +458,93 @@
         <v>Effect 1 Amount</v>
       </c>
       <c r="S1" t="str">
+        <v>Effect 1 Building</v>
+      </c>
+      <c r="T1" t="str">
         <v>Effect 1 Job</v>
       </c>
-      <c r="T1" t="str">
+      <c r="U1" t="str">
         <v>Effect 1 Action</v>
       </c>
-      <c r="U1" t="str">
+      <c r="V1" t="str">
         <v>Effect 1 Event</v>
       </c>
-      <c r="V1" t="str">
+      <c r="W1" t="str">
         <v>Effect 1 Message</v>
       </c>
-      <c r="W1" t="str">
+      <c r="X1" t="str">
         <v/>
       </c>
-      <c r="X1" t="str">
+      <c r="Y1" t="str">
         <v>Effect 2</v>
       </c>
-      <c r="Y1" t="str">
+      <c r="Z1" t="str">
         <v>Effect 2 Type</v>
       </c>
-      <c r="Z1" t="str">
+      <c r="AA1" t="str">
         <v>Effect 2 Resource</v>
       </c>
-      <c r="AA1" t="str">
+      <c r="AB1" t="str">
         <v>Effect 2 Amount</v>
       </c>
-      <c r="AB1" t="str">
+      <c r="AC1" t="str">
+        <v>Effect 2 Building</v>
+      </c>
+      <c r="AD1" t="str">
         <v>Effect 2 Job</v>
       </c>
-      <c r="AC1" t="str">
+      <c r="AE1" t="str">
         <v>Effect 2 Action</v>
       </c>
-      <c r="AD1" t="str">
+      <c r="AF1" t="str">
         <v>Effect 2 Event</v>
       </c>
-      <c r="AE1" t="str">
+      <c r="AG1" t="str">
         <v>Effect 2 Message</v>
       </c>
-      <c r="AF1" t="str">
+      <c r="AH1" t="str">
         <v/>
       </c>
-      <c r="AG1" t="str">
+      <c r="AI1" t="str">
         <v>Effect 3</v>
       </c>
-      <c r="AH1" t="str">
+      <c r="AJ1" t="str">
         <v>Effect 3 Type</v>
       </c>
-      <c r="AI1" t="str">
+      <c r="AK1" t="str">
         <v>Effect 3 Resource</v>
       </c>
-      <c r="AJ1" t="str">
+      <c r="AL1" t="str">
         <v>Effect 3 Amount</v>
       </c>
-      <c r="AK1" t="str">
+      <c r="AM1" t="str">
+        <v>Effect 3 Building</v>
+      </c>
+      <c r="AN1" t="str">
         <v>Effect 3 Job</v>
       </c>
-      <c r="AL1" t="str">
+      <c r="AO1" t="str">
         <v>Effect 3 Action</v>
       </c>
-      <c r="AM1" t="str">
+      <c r="AP1" t="str">
         <v>Effect 3 Event</v>
       </c>
-      <c r="AN1" t="str">
+      <c r="AQ1" t="str">
         <v>Effect 3 Message</v>
       </c>
-      <c r="AO1" t="str">
+      <c r="AR1" t="str">
         <v/>
       </c>
-      <c r="AP1" t="str">
+      <c r="AS1" t="str">
         <v/>
       </c>
-      <c r="AQ1" t="str">
+      <c r="AT1" t="str">
         <v>Cooldown Seconds</v>
       </c>
-      <c r="AR1" t="str">
+      <c r="AU1" t="str">
         <v>Once</v>
       </c>
-      <c r="AS1" t="str">
+      <c r="AV1" t="str">
         <v>Log Message</v>
       </c>
     </row>
@@ -604,26 +613,26 @@
         <v>uint?</v>
       </c>
       <c r="V2" t="str">
+        <v>uint?</v>
+      </c>
+      <c r="W2" t="str">
         <v>string?</v>
       </c>
-      <c r="W2" t="str">
+      <c r="X2" t="str">
         <v>}</v>
       </c>
-      <c r="X2" t="str">
+      <c r="Y2" t="str">
         <v>$ghost {</v>
-      </c>
-      <c r="Y2" t="str">
-        <v>string?</v>
       </c>
       <c r="Z2" t="str">
         <v>string?</v>
       </c>
       <c r="AA2" t="str">
+        <v>string?</v>
+      </c>
+      <c r="AB2" t="str">
         <v>float?</v>
       </c>
-      <c r="AB2" t="str">
-        <v>uint?</v>
-      </c>
       <c r="AC2" t="str">
         <v>uint?</v>
       </c>
@@ -631,48 +640,57 @@
         <v>uint?</v>
       </c>
       <c r="AE2" t="str">
+        <v>uint?</v>
+      </c>
+      <c r="AF2" t="str">
+        <v>uint?</v>
+      </c>
+      <c r="AG2" t="str">
         <v>string?</v>
       </c>
-      <c r="AF2" t="str">
+      <c r="AH2" t="str">
         <v>}</v>
       </c>
-      <c r="AG2" t="str">
+      <c r="AI2" t="str">
         <v>$ghost {</v>
       </c>
-      <c r="AH2" t="str">
+      <c r="AJ2" t="str">
         <v>string?</v>
       </c>
-      <c r="AI2" t="str">
+      <c r="AK2" t="str">
         <v>string?</v>
       </c>
-      <c r="AJ2" t="str">
+      <c r="AL2" t="str">
         <v>float?</v>
       </c>
-      <c r="AK2" t="str">
-        <v>uint?</v>
-      </c>
-      <c r="AL2" t="str">
-        <v>uint?</v>
-      </c>
       <c r="AM2" t="str">
         <v>uint?</v>
       </c>
       <c r="AN2" t="str">
+        <v>uint?</v>
+      </c>
+      <c r="AO2" t="str">
+        <v>uint?</v>
+      </c>
+      <c r="AP2" t="str">
+        <v>uint?</v>
+      </c>
+      <c r="AQ2" t="str">
         <v>string?</v>
       </c>
-      <c r="AO2" t="str">
+      <c r="AR2" t="str">
         <v>}</v>
       </c>
-      <c r="AP2" t="str">
+      <c r="AS2" t="str">
         <v>]</v>
       </c>
-      <c r="AQ2" t="str">
+      <c r="AT2" t="str">
         <v>float</v>
       </c>
-      <c r="AR2" t="str">
+      <c r="AU2" t="str">
         <v>bool</v>
       </c>
-      <c r="AS2" t="str">
+      <c r="AV2" t="str">
         <v>string</v>
       </c>
     </row>
@@ -732,84 +750,93 @@
         <v>amount</v>
       </c>
       <c r="S3" t="str">
+        <v>building</v>
+      </c>
+      <c r="T3" t="str">
         <v>job</v>
       </c>
-      <c r="T3" t="str">
+      <c r="U3" t="str">
         <v>action</v>
       </c>
-      <c r="U3" t="str">
+      <c r="V3" t="str">
         <v>event</v>
       </c>
-      <c r="V3" t="str">
+      <c r="W3" t="str">
         <v>message</v>
       </c>
-      <c r="W3" t="str">
+      <c r="X3" t="str">
         <v/>
       </c>
-      <c r="X3" t="str">
+      <c r="Y3" t="str">
         <v>effect2</v>
       </c>
-      <c r="Y3" t="str">
+      <c r="Z3" t="str">
         <v>type</v>
       </c>
-      <c r="Z3" t="str">
+      <c r="AA3" t="str">
         <v>resource</v>
       </c>
-      <c r="AA3" t="str">
+      <c r="AB3" t="str">
         <v>amount</v>
       </c>
-      <c r="AB3" t="str">
+      <c r="AC3" t="str">
+        <v>building</v>
+      </c>
+      <c r="AD3" t="str">
         <v>job</v>
       </c>
-      <c r="AC3" t="str">
+      <c r="AE3" t="str">
         <v>action</v>
       </c>
-      <c r="AD3" t="str">
+      <c r="AF3" t="str">
         <v>event</v>
       </c>
-      <c r="AE3" t="str">
+      <c r="AG3" t="str">
         <v>message</v>
       </c>
-      <c r="AF3" t="str">
+      <c r="AH3" t="str">
         <v/>
       </c>
-      <c r="AG3" t="str">
+      <c r="AI3" t="str">
         <v>effect3</v>
       </c>
-      <c r="AH3" t="str">
+      <c r="AJ3" t="str">
         <v>type</v>
       </c>
-      <c r="AI3" t="str">
+      <c r="AK3" t="str">
         <v>resource</v>
       </c>
-      <c r="AJ3" t="str">
+      <c r="AL3" t="str">
         <v>amount</v>
       </c>
-      <c r="AK3" t="str">
+      <c r="AM3" t="str">
+        <v>building</v>
+      </c>
+      <c r="AN3" t="str">
         <v>job</v>
       </c>
-      <c r="AL3" t="str">
+      <c r="AO3" t="str">
         <v>action</v>
       </c>
-      <c r="AM3" t="str">
+      <c r="AP3" t="str">
         <v>event</v>
       </c>
-      <c r="AN3" t="str">
+      <c r="AQ3" t="str">
         <v>message</v>
       </c>
-      <c r="AO3" t="str">
+      <c r="AR3" t="str">
         <v/>
       </c>
-      <c r="AP3" t="str">
+      <c r="AS3" t="str">
         <v/>
       </c>
-      <c r="AQ3" t="str">
+      <c r="AT3" t="str">
         <v>cooldown</v>
       </c>
-      <c r="AR3" t="str">
+      <c r="AU3" t="str">
         <v>once</v>
       </c>
-      <c r="AS3" t="str">
+      <c r="AV3" t="str">
         <v>log</v>
       </c>
     </row>
@@ -841,13 +868,13 @@
       <c r="R4">
         <v>1</v>
       </c>
-      <c r="AQ4">
+      <c r="AT4">
         <v>600</v>
       </c>
-      <c r="AR4" t="b">
+      <c r="AU4" t="b">
         <v>1</v>
       </c>
-      <c r="AS4" t="str">
+      <c r="AV4" t="str">
         <v>陌生人蜷缩在火旁，慢慢伸出双手烤火。</v>
       </c>
     </row>
@@ -876,13 +903,13 @@
       <c r="R5">
         <v>1</v>
       </c>
-      <c r="AQ5">
+      <c r="AT5">
         <v>300</v>
       </c>
-      <c r="AR5" t="b">
+      <c r="AU5" t="b">
         <v>0</v>
       </c>
-      <c r="AS5" t="str">
+      <c r="AV5" t="str">
         <v>有人敲了敲门，想留在这里。</v>
       </c>
     </row>
@@ -908,16 +935,16 @@
       <c r="P6" t="str">
         <v>log</v>
       </c>
-      <c r="V6" t="str">
+      <c r="W6" t="str">
         <v>炉火濒临熄灭，必须添柴。</v>
       </c>
-      <c r="AQ6">
+      <c r="AT6">
         <v>180</v>
       </c>
-      <c r="AR6" t="b">
+      <c r="AU6" t="b">
         <v>0</v>
       </c>
-      <c r="AS6" t="str">
+      <c r="AV6" t="str">
         <v>寒风灌入营地，大家不安地望向你。</v>
       </c>
     </row>
@@ -940,16 +967,16 @@
       <c r="P7" t="str">
         <v>log</v>
       </c>
-      <c r="V7" t="str">
+      <c r="W7" t="str">
         <v>商队抵达，他们乐于交换口粮与补给。</v>
       </c>
-      <c r="AQ7">
+      <c r="AT7">
         <v>900</v>
       </c>
-      <c r="AR7" t="b">
+      <c r="AU7" t="b">
         <v>1</v>
       </c>
-      <c r="AS7" t="str">
+      <c r="AV7" t="str">
         <v>商队在营地外搭起了帐篷。</v>
       </c>
     </row>
@@ -981,25 +1008,25 @@
       <c r="R8">
         <v>-20</v>
       </c>
-      <c r="Y8" t="str">
+      <c r="Z8" t="str">
         <v>log</v>
       </c>
-      <c r="AE8" t="str">
+      <c r="AG8" t="str">
         <v>夜里传来低嚎，第二天肉少了一些。</v>
       </c>
-      <c r="AQ8">
+      <c r="AT8">
         <v>420</v>
       </c>
-      <c r="AR8" t="b">
+      <c r="AU8" t="b">
         <v>0</v>
       </c>
-      <c r="AS8" t="str">
+      <c r="AV8" t="str">
         <v>黎明时，雪地里出现了狼爪的痕迹。</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AS8"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AV8"/>
   </ignoredErrors>
 </worksheet>
 </file>